--- a/최준서/Use Case Description(등록된 자전거 리스트 조회) - 최준서(최종).xlsx
+++ b/최준서/Use Case Description(등록된 자전거 리스트 조회) - 최준서(최종).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.269.55310"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Actor Action</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>5b. "항목 삭제" 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>4. "상세정보 보기/항목 삭제" 옵션을 출력한다.</t>
+  </si>
+  <si>
+    <t>5a. "상세정보 보기" 버튼을 클릭한다.</t>
+  </si>
+  <si>
+    <t>6a. 해당 자전거의 상세정보를 볼 수 있는 화면으로 이동한다.</t>
   </si>
 </sst>
 </file>
@@ -1171,13 +1180,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="1" max="1" width="46.00500107" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="65.37999725" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="63.75500107" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1206,15 +1215,15 @@
         <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33.000000" customHeight="1">
+    <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
